--- a/lab2/Book1.xlsx
+++ b/lab2/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D80A0F-C454-4DF2-B76E-1A9EB5E253E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC716F-CCC2-4742-ADAC-1273FDE4E105}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="6">
   <si>
     <t>TP</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>Threshold</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -346,58 +350,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>373</c:v>
+                  <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>317</c:v>
+                  <c:v>791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>275</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -439,49 +443,49 @@
                   <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>94</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>74</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1</c:v>
@@ -535,8 +539,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -946,49 +951,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>57</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>77</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>110</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>131</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>143</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>150</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>150</c:v>
@@ -1003,58 +1008,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>738</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>794</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>836</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>899</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>938</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>972</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1002</c:v>
+                  <c:v>725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1033</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1047</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1061</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1069</c:v>
+                  <c:v>987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1078</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1095</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1103</c:v>
+                  <c:v>1068</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1106</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1109</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1111</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1111</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1111</c:v>
@@ -1117,8 +1122,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2794,7 +2800,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E23"/>
+      <selection activeCell="O2" sqref="O2:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2826,19 +2832,19 @@
       <c r="A2" s="2">
         <v>150</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>151</v>
       </c>
-      <c r="C2" s="2">
-        <v>373</v>
+      <c r="C2">
+        <v>889</v>
       </c>
       <c r="M2" s="2">
         <v>150</v>
       </c>
-      <c r="N2" s="2">
-        <v>738</v>
-      </c>
-      <c r="O2" s="2">
+      <c r="N2">
+        <v>222</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
     </row>
@@ -2846,19 +2852,19 @@
       <c r="A3" s="2">
         <v>155</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>151</v>
       </c>
-      <c r="C3" s="2">
-        <v>317</v>
+      <c r="C3">
+        <v>791</v>
       </c>
       <c r="M3" s="2">
         <v>155</v>
       </c>
-      <c r="N3" s="2">
-        <v>794</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="N3">
+        <v>320</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
@@ -2866,19 +2872,19 @@
       <c r="A4" s="2">
         <v>160</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>151</v>
       </c>
-      <c r="C4" s="2">
-        <v>275</v>
+      <c r="C4">
+        <v>675</v>
       </c>
       <c r="M4" s="2">
         <v>160</v>
       </c>
-      <c r="N4" s="2">
-        <v>836</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="N4">
+        <v>436</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
     </row>
@@ -2886,19 +2892,19 @@
       <c r="A5" s="2">
         <v>165</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>151</v>
       </c>
-      <c r="C5" s="2">
-        <v>212</v>
+      <c r="C5">
+        <v>597</v>
       </c>
       <c r="M5" s="2">
         <v>165</v>
       </c>
-      <c r="N5" s="2">
-        <v>899</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="N5">
+        <v>514</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
     </row>
@@ -2906,19 +2912,19 @@
       <c r="A6" s="2">
         <v>170</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>151</v>
       </c>
-      <c r="C6" s="2">
-        <v>173</v>
+      <c r="C6">
+        <v>535</v>
       </c>
       <c r="M6" s="2">
         <v>170</v>
       </c>
-      <c r="N6" s="2">
-        <v>938</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="N6">
+        <v>576</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
@@ -2926,19 +2932,19 @@
       <c r="A7" s="2">
         <v>175</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>151</v>
       </c>
-      <c r="C7" s="2">
-        <v>139</v>
+      <c r="C7">
+        <v>468</v>
       </c>
       <c r="M7" s="2">
         <v>175</v>
       </c>
-      <c r="N7" s="2">
-        <v>972</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="N7">
+        <v>643</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
     </row>
@@ -2946,319 +2952,319 @@
       <c r="A8" s="2">
         <v>180</v>
       </c>
-      <c r="B8" s="2">
-        <v>150</v>
-      </c>
-      <c r="C8" s="2">
-        <v>109</v>
+      <c r="B8">
+        <v>151</v>
+      </c>
+      <c r="C8">
+        <v>386</v>
       </c>
       <c r="M8" s="2">
         <v>180</v>
       </c>
-      <c r="N8" s="2">
-        <v>1002</v>
-      </c>
-      <c r="O8" s="2">
-        <v>1</v>
+      <c r="N8">
+        <v>725</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>185</v>
       </c>
-      <c r="B9" s="2">
-        <v>148</v>
-      </c>
-      <c r="C9" s="2">
-        <v>78</v>
+      <c r="B9">
+        <v>151</v>
+      </c>
+      <c r="C9">
+        <v>308</v>
       </c>
       <c r="M9" s="2">
         <v>185</v>
       </c>
-      <c r="N9" s="2">
-        <v>1033</v>
-      </c>
-      <c r="O9" s="2">
-        <v>3</v>
+      <c r="N9">
+        <v>803</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>190</v>
       </c>
-      <c r="B10" s="2">
-        <v>144</v>
-      </c>
-      <c r="C10" s="2">
-        <v>64</v>
+      <c r="B10">
+        <v>151</v>
+      </c>
+      <c r="C10">
+        <v>231</v>
       </c>
       <c r="M10" s="2">
         <v>190</v>
       </c>
-      <c r="N10" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O10" s="2">
-        <v>7</v>
+      <c r="N10">
+        <v>880</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>195</v>
       </c>
-      <c r="B11" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2">
-        <v>50</v>
+      <c r="B11">
+        <v>151</v>
+      </c>
+      <c r="C11">
+        <v>169</v>
       </c>
       <c r="M11" s="2">
         <v>195</v>
       </c>
-      <c r="N11" s="2">
-        <v>1061</v>
-      </c>
-      <c r="O11" s="2">
-        <v>10</v>
+      <c r="N11">
+        <v>942</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>200</v>
       </c>
-      <c r="B12" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42</v>
+      <c r="B12">
+        <v>151</v>
+      </c>
+      <c r="C12">
+        <v>124</v>
       </c>
       <c r="M12" s="2">
         <v>200</v>
       </c>
-      <c r="N12" s="2">
-        <v>1069</v>
-      </c>
-      <c r="O12" s="2">
-        <v>18</v>
+      <c r="N12">
+        <v>987</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>205</v>
       </c>
-      <c r="B13" s="2">
-        <v>122</v>
-      </c>
-      <c r="C13" s="2">
-        <v>33</v>
+      <c r="B13">
+        <v>148</v>
+      </c>
+      <c r="C13">
+        <v>82</v>
       </c>
       <c r="M13" s="2">
         <v>205</v>
       </c>
-      <c r="N13" s="2">
-        <v>1078</v>
-      </c>
-      <c r="O13" s="2">
-        <v>29</v>
+      <c r="N13">
+        <v>1029</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>210</v>
       </c>
-      <c r="B14" s="2">
-        <v>110</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
+      <c r="B14">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
       </c>
       <c r="M14" s="2">
         <v>210</v>
       </c>
-      <c r="N14" s="2">
-        <v>1095</v>
-      </c>
-      <c r="O14" s="2">
-        <v>41</v>
+      <c r="N14">
+        <v>1052</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>215</v>
       </c>
-      <c r="B15" s="2">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2">
-        <v>8</v>
+      <c r="B15">
+        <v>133</v>
+      </c>
+      <c r="C15">
+        <v>43</v>
       </c>
       <c r="M15" s="2">
         <v>215</v>
       </c>
-      <c r="N15" s="2">
-        <v>1103</v>
-      </c>
-      <c r="O15" s="2">
-        <v>57</v>
+      <c r="N15">
+        <v>1068</v>
+      </c>
+      <c r="O15">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>220</v>
       </c>
-      <c r="B16" s="2">
-        <v>74</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
+      <c r="B16">
+        <v>121</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
       </c>
       <c r="M16" s="2">
         <v>220</v>
       </c>
-      <c r="N16" s="2">
-        <v>1106</v>
-      </c>
-      <c r="O16" s="2">
-        <v>77</v>
+      <c r="N16">
+        <v>1081</v>
+      </c>
+      <c r="O16">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>225</v>
       </c>
-      <c r="B17" s="2">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
+      <c r="B17">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
       </c>
       <c r="M17" s="2">
         <v>225</v>
       </c>
-      <c r="N17" s="2">
-        <v>1109</v>
-      </c>
-      <c r="O17" s="2">
-        <v>96</v>
+      <c r="N17">
+        <v>1097</v>
+      </c>
+      <c r="O17">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>230</v>
       </c>
-      <c r="B18" s="2">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
       </c>
       <c r="M18" s="2">
         <v>230</v>
       </c>
-      <c r="N18" s="2">
-        <v>1111</v>
-      </c>
-      <c r="O18" s="2">
-        <v>110</v>
+      <c r="N18">
+        <v>1106</v>
+      </c>
+      <c r="O18">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>235</v>
       </c>
-      <c r="B19" s="2">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
+      <c r="B19">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>235</v>
       </c>
-      <c r="N19" s="2">
-        <v>1111</v>
-      </c>
-      <c r="O19" s="2">
-        <v>123</v>
+      <c r="N19">
+        <v>1110</v>
+      </c>
+      <c r="O19">
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>240</v>
       </c>
-      <c r="B20" s="2">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
         <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>240</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>1111</v>
       </c>
-      <c r="O20" s="2">
-        <v>131</v>
+      <c r="O20">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>245</v>
       </c>
-      <c r="B21" s="2">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>245</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>1111</v>
       </c>
-      <c r="O21" s="2">
-        <v>143</v>
+      <c r="O21">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>250</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>250</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>1111</v>
       </c>
-      <c r="O22" s="2">
-        <v>150</v>
+      <c r="O22">
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>255</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>255</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23">
         <v>1111</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23">
         <v>150</v>
       </c>
     </row>
@@ -3267,4 +3273,855 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABD654-7414-4BA5-A0D0-D04633A6838E}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>889</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1262</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>791</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1262</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>675</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>436</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1262</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>597</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>514</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>1262</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>535</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>576</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1262</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>468</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>643</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1262</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>386</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>725</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>1262</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>308</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>803</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1262</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>231</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>880</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1262</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>942</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>1262</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>124</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>987</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1262</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1029</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>1262</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1052</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>1262</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1068</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>1262</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1081</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>1262</v>
+      </c>
+      <c r="K15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1097</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1262</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>1262</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1110</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>103</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>1262</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1111</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>1262</v>
+      </c>
+      <c r="K19" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>135</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>1262</v>
+      </c>
+      <c r="K20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>1262</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1262</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lab2/Book1.xlsx
+++ b/lab2/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC716F-CCC2-4742-ADAC-1273FDE4E105}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947A2DB-310F-4F9D-8374-D16AD1C34BD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="8">
   <si>
     <t>TP</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>FPR</t>
   </si>
 </sst>
 </file>
@@ -73,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +89,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,12 +126,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,14 +170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12213740112175277"/>
-          <c:y val="2.5279884434814014E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -345,63 +355,63 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$23</c:f>
+              <c:f>Sheet1!$G$2:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>889</c:v>
+                  <c:v>0.80018001800180016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>791</c:v>
+                  <c:v>0.71197119711971202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>675</c:v>
+                  <c:v>0.60756075607560756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>597</c:v>
+                  <c:v>0.53735373537353737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>535</c:v>
+                  <c:v>0.48154815481548152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>468</c:v>
+                  <c:v>0.42124212421242124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>386</c:v>
+                  <c:v>0.34743474347434744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>308</c:v>
+                  <c:v>0.27722772277227725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231</c:v>
+                  <c:v>0.20792079207920791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>169</c:v>
+                  <c:v>0.15211521152115212</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124</c:v>
+                  <c:v>0.11161116111611161</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82</c:v>
+                  <c:v>7.3807380738073802E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59</c:v>
+                  <c:v>5.3105310531053107E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>3.8703870387038701E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>2.7002700270027002E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>1.2601260126012601E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>4.5004500450045006E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>9.0009000900090005E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -420,75 +430,75 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>148</c:v>
+                  <c:v>0.98013245033112584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>143</c:v>
+                  <c:v>0.94701986754966883</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>133</c:v>
+                  <c:v>0.88079470198675491</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>121</c:v>
+                  <c:v>0.80132450331125826</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>99</c:v>
+                  <c:v>0.6556291390728477</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>0.49668874172185429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>0.31788079470198677</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>0.20529801324503311</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16</c:v>
+                  <c:v>0.10596026490066225</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>3.3112582781456956E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>6.6225165562913907E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,7 +506,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-616F-463E-BFC3-73BADCF4179F}"/>
+              <c16:uniqueId val="{00000000-E886-4434-9C19-3631685870B9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -762,552 +772,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$2:$M$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$2:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>436</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>725</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>803</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>942</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>987</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1029</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1052</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1068</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1081</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1097</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1106</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1110</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1111</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1111</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1111</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B393-490E-8176-05AFB9ED6CCA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1993899552"/>
-        <c:axId val="1750083952"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1993899552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1750083952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1750083952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1993899552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1885,558 +1350,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2456,42 +1383,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85385DE2-042E-4DB8-A756-40E70C5F6A76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2797,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164C203D-EF02-42D6-9D62-66B310BB5300}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O23"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2808,465 +1699,601 @@
     <col min="11" max="11" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>150</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>151</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>889</v>
       </c>
-      <c r="M2" s="2">
-        <v>150</v>
-      </c>
-      <c r="N2">
+      <c r="D2" s="2">
         <v>222</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>B2/(B2+E2)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <f>C2/(C2+D2)</f>
+        <v>0.80018001800180016</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>155</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>151</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>791</v>
       </c>
-      <c r="M3" s="2">
-        <v>155</v>
-      </c>
-      <c r="N3">
+      <c r="D3" s="2">
         <v>320</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F23" si="0">B3/(B3+E3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G23" si="1">C3/(C3+D3)</f>
+        <v>0.71197119711971202</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>160</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>151</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>675</v>
       </c>
-      <c r="M4" s="2">
-        <v>160</v>
-      </c>
-      <c r="N4">
+      <c r="D4" s="2">
         <v>436</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.60756075607560756</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>165</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>151</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>597</v>
       </c>
-      <c r="M5" s="2">
-        <v>165</v>
-      </c>
-      <c r="N5">
+      <c r="D5" s="2">
         <v>514</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.53735373537353737</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>170</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>151</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>535</v>
       </c>
-      <c r="M6" s="2">
-        <v>170</v>
-      </c>
-      <c r="N6">
+      <c r="D6" s="2">
         <v>576</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48154815481548152</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>175</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>151</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>468</v>
       </c>
-      <c r="M7" s="2">
-        <v>175</v>
-      </c>
-      <c r="N7">
+      <c r="D7" s="2">
         <v>643</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42124212421242124</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>180</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>151</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>386</v>
       </c>
-      <c r="M8" s="2">
-        <v>180</v>
-      </c>
-      <c r="N8">
+      <c r="D8" s="2">
         <v>725</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34743474347434744</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>185</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>151</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>308</v>
       </c>
-      <c r="M9" s="2">
-        <v>185</v>
-      </c>
-      <c r="N9">
+      <c r="D9" s="2">
         <v>803</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>190</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>151</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>231</v>
       </c>
-      <c r="M10" s="2">
-        <v>190</v>
-      </c>
-      <c r="N10">
+      <c r="D10" s="2">
         <v>880</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20792079207920791</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>195</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>151</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>169</v>
       </c>
-      <c r="M11" s="2">
-        <v>195</v>
-      </c>
-      <c r="N11">
+      <c r="D11" s="2">
         <v>942</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15211521152115212</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>200</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>151</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>124</v>
       </c>
-      <c r="M12" s="2">
-        <v>200</v>
-      </c>
-      <c r="N12">
+      <c r="D12" s="2">
         <v>987</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11161116111611161</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>205</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>148</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>82</v>
       </c>
-      <c r="M13" s="2">
-        <v>205</v>
-      </c>
-      <c r="N13">
+      <c r="D13" s="2">
         <v>1029</v>
       </c>
-      <c r="O13">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98013245033112584</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3807380738073802E-2</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>210</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>143</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>59</v>
       </c>
-      <c r="M14" s="2">
-        <v>210</v>
-      </c>
-      <c r="N14">
+      <c r="D14" s="2">
         <v>1052</v>
       </c>
-      <c r="O14">
+      <c r="E14" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94701986754966883</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3105310531053107E-2</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>215</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>133</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>43</v>
       </c>
-      <c r="M15" s="2">
-        <v>215</v>
-      </c>
-      <c r="N15">
+      <c r="D15" s="2">
         <v>1068</v>
       </c>
-      <c r="O15">
+      <c r="E15" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88079470198675491</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8703870387038701E-2</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>220</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>121</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>30</v>
       </c>
-      <c r="M16" s="2">
-        <v>220</v>
-      </c>
-      <c r="N16">
+      <c r="D16" s="2">
         <v>1081</v>
       </c>
-      <c r="O16">
+      <c r="E16" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80132450331125826</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7002700270027002E-2</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>225</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>99</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>14</v>
       </c>
-      <c r="M17" s="2">
-        <v>225</v>
-      </c>
-      <c r="N17">
+      <c r="D17" s="2">
         <v>1097</v>
       </c>
-      <c r="O17">
+      <c r="E17" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6556291390728477</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2601260126012601E-2</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>230</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>75</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="M18" s="2">
-        <v>230</v>
-      </c>
-      <c r="N18">
+      <c r="D18" s="2">
         <v>1106</v>
       </c>
-      <c r="O18">
+      <c r="E18" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49668874172185429</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5004500450045006E-3</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>235</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>48</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>235</v>
-      </c>
-      <c r="N19">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
         <v>1110</v>
       </c>
-      <c r="O19">
+      <c r="E19" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31788079470198677</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0009000900090005E-4</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>240</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>31</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>240</v>
-      </c>
-      <c r="N20">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
         <v>1111</v>
       </c>
-      <c r="O20">
+      <c r="E20" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20529801324503311</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>245</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>245</v>
-      </c>
-      <c r="N21">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>1111</v>
       </c>
-      <c r="O21">
+      <c r="E21" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10596026490066225</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>250</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>250</v>
-      </c>
-      <c r="N22">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
         <v>1111</v>
       </c>
-      <c r="O22">
+      <c r="E22" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3112582781456956E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>255</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>255</v>
-      </c>
-      <c r="N23">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
         <v>1111</v>
       </c>
-      <c r="O23">
+      <c r="E23" s="2">
         <v>150</v>
       </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
